--- a/Assets/06.Table/YorinMission.xlsx
+++ b/Assets/06.Table/YorinMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11E850-BF03-4083-8EE7-3C70531CA743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05F00B-75B7-4FC1-8916-FF482D09EA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -344,11 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가방 - 노리개에서 제작 가능
-요괴도장에서 옥을 획득 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YMission5_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,11 +518,6 @@
   <si>
     <t>메뉴 - 상점 - 광고제거에서
 구매 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴사냥 - 한계돌파에서
-플레이 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,6 +585,25 @@
 플레이 가능
 십만대산 파티만들기를 통해
 플레이 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 - 한계돌파에서
+플레이 가능
+골드 강화 및 뽑기를 통해 성장 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 사냥 - 한계돌파에서
+플레이 가능
+수련-무공비급에서
+경험치 획득 증가 상승 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 - 노리개에서 제작 가능
+(전설 1등급 노리개 필요)
+요괴도장에서 옥을 획득 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1368,10 +1377,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
@@ -1396,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1404,10 +1413,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1440,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
@@ -1476,10 +1485,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1504,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1512,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1548,10 +1557,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1584,7 +1593,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>79</v>
@@ -1620,7 +1629,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>79</v>
@@ -1656,10 +1665,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1684,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -1692,10 +1701,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1728,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
@@ -1764,10 +1773,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1800,10 +1809,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1836,10 +1845,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
@@ -1872,10 +1881,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="9">
         <v>3</v>
@@ -1908,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -1944,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -1980,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
@@ -2016,10 +2025,10 @@
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2052,10 +2061,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -2088,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>49</v>
@@ -2124,10 +2133,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -2160,10 +2169,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -2196,10 +2205,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -2232,10 +2241,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" s="15">
         <v>6</v>
@@ -2268,7 +2277,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>49</v>
@@ -2304,7 +2313,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>85</v>
@@ -2340,7 +2349,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>49</v>
@@ -2376,10 +2385,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -2412,10 +2421,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="7">
         <v>5</v>
@@ -2445,13 +2454,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
@@ -2484,7 +2493,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>49</v>
@@ -2520,10 +2529,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2556,10 +2565,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -2592,10 +2601,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36" s="1">
         <v>6</v>
@@ -2628,10 +2637,10 @@
         <v>42</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E37" s="15">
         <v>4</v>
@@ -2664,7 +2673,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>50</v>
@@ -2697,10 +2706,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>52</v>
@@ -2772,10 +2781,10 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="1">
         <v>7</v>
@@ -2805,13 +2814,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E42" s="15">
         <v>7</v>
